--- a/trunk/docs/varios/Pruebas/EEFF - 1.xlsx
+++ b/trunk/docs/varios/Pruebas/EEFF - 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FECU" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
